--- a/biology/Botanique/Plectranthus_barbatus/Plectranthus_barbatus.xlsx
+++ b/biology/Botanique/Plectranthus_barbatus/Plectranthus_barbatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plectranthus barbatus, connu aussi sous le synonyme botanique Coleus forskohlii et communément appelée Coléus à forskoline ou Coléus de l'Inde[5], et doliprane aux Antilles françaises, est un coléus qui fait partie des espèces de plantes de la famille des Labiées (Lamiaceae), originaire de l'Inde. Cette plante vivace tropicale est cultivée notamment pour sa forskoline, un composant aux propriétés médicinales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plectranthus barbatus, connu aussi sous le synonyme botanique Coleus forskohlii et communément appelée Coléus à forskoline ou Coléus de l'Inde, et doliprane aux Antilles françaises, est un coléus qui fait partie des espèces de plantes de la famille des Labiées (Lamiaceae), originaire de l'Inde. Cette plante vivace tropicale est cultivée notamment pour sa forskoline, un composant aux propriétés médicinales.
 </t>
         </is>
       </c>
@@ -511,17 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante a de grandes feuilles dentées et une inflorescence en épi bleu. C'est une plante vivace qui pousse en climat tropical.
 			Planche botanique
 			Inflorescence
 			Feuillage
 			Feuille
-Utilisation
-Cette plante est largement cultivée pour ses composants aux propriétés médicinales[6].
-Des études sont en cours sur l’activité d’un de ses composés, un diterpénoïde, le coléonol ou forskoline, contenu dans les racines, qui aurait des propriétés cardiotoniques. Il pourrait être utilisé dans les compléments alimentaires à visée « minceur » par son action sur le métabolisme des sucres et des graisses.
-Du fait de ses vertus médicinales, notamment soigner les maux de tête, cette plante est appelée "doliprane" en Guadeloupe et en Martinique.
 </t>
         </is>
       </c>
@@ -547,18 +557,94 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est largement cultivée pour ses composants aux propriétés médicinales.
+Des études sont en cours sur l’activité d’un de ses composés, un diterpénoïde, le coléonol ou forskoline, contenu dans les racines, qui aurait des propriétés cardiotoniques. Il pourrait être utilisé dans les compléments alimentaires à visée « minceur » par son action sur le métabolisme des sucres et des graisses.
+Du fait de ses vertus médicinales, notamment soigner les maux de tête, cette plante est appelée "doliprane" en Guadeloupe et en Martinique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plectranthus_barbatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_barbatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce taxon a été décrit en 1810 par le botaniste britannique Henry Cranke Andrews (1794-1830).
-L'épithète spécifique barbatus signifie « barbu, à poils longs et fins »[7].
-Liste des variétés
-Selon Catalogue of Life                                   (26 octobre 2015)[8], The Plant List            (26 octobre 2015)[9] et Tropicos                                           (26 octobre 2015)[10] :
+L'épithète spécifique barbatus signifie « barbu, à poils longs et fins ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plectranthus_barbatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_barbatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 octobre 2015), The Plant List            (26 octobre 2015) et Tropicos                                           (26 octobre 2015) :
 variété Plectranthus barbatus var. barbatus
 Synonymes de Plectranthus barbatus var. barbatus selon Kew
-Synonymes de Plectranthus barbatus var. barbatus[11] :
+Synonymes de Plectranthus barbatus var. barbatus :
 Ocimum asperum Roth
 Plectranthus comosus Sims
 Plectranthus asper (Roth) Spreng.
@@ -573,7 +659,7 @@
 Plectranthus pseudobarbatus J.K.Morton
 variété Plectranthus barbatus var. grandis (L.H.Cramer) Lukhoba &amp; A.J.Paton.
 Synonymes de Plectranthus barbatus var. grandis selon Kew
-Synonymes de Plectranthus barbatus var. grandis[12] :
+Synonymes de Plectranthus barbatus var. grandis :
 Coleus grandis L.H.Cramer
 Plectranthus grandis (L.H.Cramer) R.H.Willemse
 Coleus kilimandschari Gürke
